--- a/Abstracts/Website Presentation Database.xlsx
+++ b/Abstracts/Website Presentation Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reza\Desktop\ElDia2022.github.io\Abstracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776CB9C-791E-4C6E-BBA4-B13D83A7BCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E1CDF-E355-4D30-91B0-B61527F514E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Quinn changed to in-peson per email Mar 1, 8:27 am
 	-Robert Bruce Hull</t>
@@ -49,6 +50,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Change made from Session 1 to Session 2
 	-Robert Bruce Hull</t>
@@ -62,6 +64,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>has time conflict with this session
 	-Abigail Kahler
@@ -77,6 +80,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>RSVP said online
 	-Abigail Kahler
@@ -92,6 +96,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>withdrawn via email 3/1
 	-Abigail Kahler</t>
@@ -631,9 +636,6 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1cT-R9oNlSA68mw6lpJdlSFH-fItyIB77</t>
-  </si>
-  <si>
-    <t>Uncertainty is introduced in scientific analyses through the innate structure of our analyses and limits to field data collection.  When creating future predictions about the responses of natural systems to changing conditions, these uncertainties translate into potential prediction errors, which can affect the quality of stakeholders’ decisions.  Groundwater modeling is no different.  Scientific experts create models based on the abstraction and calibration to field data.  Typically, these models are provided to stakeholders with model predictions with little ability for the stakeholders to use the models themselves to explore other possible solutions.  Olsson Engineering has developed the Groundwater Evaluation Toolbox (GET) as an online platform to allow non-experts to use existing, calibrated models interactively, opening up interesting opportunities for multiple stakeholders to make more informed water resources decisions.  While this tool gives unprecedented access to groundwater models, it does not include any consideration of prediction uncertainty.  The aim of this study is to expand GET to include prediction uncertainty so that it is available for stakeholder consideration.  Initially, this will be limited to models that have already been calibrated using the uncertainty capabilities of the Parameter ESTimation (PEST) software.  Through Olsson Engineering, we will interface with stakeholders who have already used GET to assess the added value of including prediction uncertainties.</t>
   </si>
   <si>
     <t>Ben</t>
@@ -1400,6 +1402,9 @@
   </si>
   <si>
     <t>Álvarez-Yepiz J. C., Franz T., Garatuza-Payan J., Guevara M., Peñuelas-Rubio O., Rosolem R., Torres-Velázquez J. R., Yepez E. A.</t>
+  </si>
+  <si>
+    <t>Uncertainty is introduced in scientific analyses through the innate structure of our analyses and limits to field data collection.  When creating future predictions about the responses of natural systems to changing conditions, these uncertainties translate into potential prediction errors, which can affect the quality of stakeholders’ decisions.  Groundwater modeling is no different.  Scientific experts create models based on the abstraction and calibration to field data.  Typically, these models are provided to stakeholders with model predictions with little ability for the stakeholders to use the models themselves to explore other possible solutions.  Olsson has developed the Groundwater Evaluation Toolbox (GET) as an online platform to allow non-experts to use existing, calibrated models interactively, opening up interesting opportunities for multiple stakeholders to make more informed water resources decisions.  While this tool gives unprecedented access to groundwater models, it does not include any consideration of prediction uncertainty.  The aim of this study is to expand GET to include prediction uncertainty so that it is available for stakeholder consideration.  Initially, this will be limited to models that have already been calibrated using the uncertainty capabilities of the Parameter ESTimation (PEST) software.  Through Olsson, we will interface with stakeholders who have already used GET to assess the added value of including prediction uncertainties.</t>
   </si>
 </sst>
 </file>
@@ -1765,10 +1770,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O41" sqref="O41"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2043,7 +2048,7 @@
         <v>21</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>57</v>
@@ -2660,7 +2665,7 @@
         <v>172</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>173</v>
+        <v>406</v>
       </c>
       <c r="O21" s="7"/>
     </row>
@@ -2670,10 +2675,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>29</v>
@@ -2682,7 +2687,7 @@
         <v>102</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>21</v>
@@ -2691,13 +2696,13 @@
         <v>126</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="O22" s="7"/>
     </row>
@@ -2707,10 +2712,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>29</v>
@@ -2719,7 +2724,7 @@
         <v>30</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>21</v>
@@ -2728,16 +2733,16 @@
         <v>126</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="L23" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="O23" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2748,10 +2753,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>29</v>
@@ -2760,22 +2765,22 @@
         <v>102</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I24" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="L24" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="O24" s="7"/>
     </row>
@@ -2787,10 +2792,10 @@
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>29</v>
@@ -2799,25 +2804,25 @@
         <v>30</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="L25" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="O25" s="16" t="s">
         <v>199</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2828,10 +2833,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>29</v>
@@ -2840,7 +2845,7 @@
         <v>30</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>21</v>
@@ -2849,16 +2854,16 @@
         <v>22</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="L26" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="O26" s="16" t="s">
         <v>206</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2869,10 +2874,10 @@
         <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>29</v>
@@ -2881,22 +2886,22 @@
         <v>30</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="L27" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="O27" s="9"/>
     </row>
@@ -2906,10 +2911,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>29</v>
@@ -2918,7 +2923,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>21</v>
@@ -2927,16 +2932,16 @@
         <v>157</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="L28" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="O28" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2945,10 +2950,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>46</v>
@@ -2957,7 +2962,7 @@
         <v>47</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>21</v>
@@ -2966,13 +2971,13 @@
         <v>22</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="L29" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>226</v>
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="10">
@@ -2985,10 +2990,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>29</v>
@@ -2997,25 +3002,25 @@
         <v>102</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="K30" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="L30" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="O30" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3024,10 +3029,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>29</v>
@@ -3036,7 +3041,7 @@
         <v>102</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>21</v>
@@ -3045,13 +3050,13 @@
         <v>73</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="L31" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="O31" s="7"/>
     </row>
@@ -3066,7 +3071,7 @@
         <v>108</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>46</v>
@@ -3075,25 +3080,25 @@
         <v>71</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="L32" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="O32" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="P32" s="18">
         <v>0.47916666666666669</v>
@@ -3105,10 +3110,10 @@
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>29</v>
@@ -3117,22 +3122,22 @@
         <v>30</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="L33" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="O33" s="7"/>
     </row>
@@ -3142,10 +3147,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>29</v>
@@ -3154,7 +3159,7 @@
         <v>102</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>156</v>
@@ -3163,16 +3168,16 @@
         <v>157</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="L34" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="O34" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3181,10 +3186,10 @@
         <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>29</v>
@@ -3193,22 +3198,22 @@
         <v>102</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="L35" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="O35" s="7"/>
     </row>
@@ -3220,10 +3225,10 @@
         <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>94</v>
@@ -3232,22 +3237,22 @@
         <v>19</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="L36" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="10">
@@ -3262,10 +3267,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>94</v>
@@ -3274,25 +3279,25 @@
         <v>47</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="L37" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="O37" s="15" t="s">
         <v>283</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>284</v>
       </c>
       <c r="P37" s="10">
         <v>0.60347222222222219</v>
@@ -3306,10 +3311,10 @@
         <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>29</v>
@@ -3318,25 +3323,25 @@
         <v>30</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="J38" s="9" t="s">
+      <c r="K38" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="L38" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="O38" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3345,10 +3350,10 @@
         <v>39</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>46</v>
@@ -3357,25 +3362,25 @@
         <v>71</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="K39" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="L39" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="L39" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="O39" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P39" s="10">
         <v>0.50972222222222219</v>
@@ -3389,10 +3394,10 @@
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>29</v>
@@ -3401,25 +3406,25 @@
         <v>30</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="K40" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="O40" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3428,10 +3433,10 @@
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>29</v>
@@ -3440,7 +3445,7 @@
         <v>102</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>21</v>
@@ -3449,13 +3454,13 @@
         <v>32</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="L41" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="O41" s="7"/>
     </row>
@@ -3465,10 +3470,10 @@
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>46</v>
@@ -3477,25 +3482,25 @@
         <v>71</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="K42" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="L42" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="O42" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="P42" s="10">
         <v>0.50208333333333333</v>
@@ -3507,10 +3512,10 @@
         <v>43</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>29</v>
@@ -3519,22 +3524,22 @@
         <v>102</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J43" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="L43" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="O43" s="7"/>
     </row>
@@ -3544,10 +3549,10 @@
         <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>94</v>
@@ -3556,25 +3561,25 @@
         <v>19</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K44" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="L44" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="O44" s="15" t="s">
         <v>330</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>331</v>
       </c>
       <c r="P44" s="10">
         <v>0.70138888888888884</v>
@@ -3586,10 +3591,10 @@
         <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>29</v>
@@ -3598,22 +3603,22 @@
         <v>102</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I45" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="K45" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="L45" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="O45" s="7"/>
     </row>
@@ -3623,10 +3628,10 @@
         <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>29</v>
@@ -3635,25 +3640,25 @@
         <v>30</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="K46" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="L46" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="L46" s="9" t="s">
+      <c r="O46" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="O46" s="15" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3664,10 +3669,10 @@
         <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>347</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>29</v>
@@ -3676,25 +3681,25 @@
         <v>30</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="K47" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="L47" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="O47" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="O47" s="15" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3705,10 +3710,10 @@
         <v>48</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>29</v>
@@ -3717,7 +3722,7 @@
         <v>102</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>21</v>
@@ -3726,13 +3731,13 @@
         <v>104</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K48" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="L48" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>359</v>
       </c>
       <c r="O48" s="7"/>
     </row>
@@ -3742,10 +3747,10 @@
         <v>50</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>29</v>
@@ -3754,22 +3759,22 @@
         <v>102</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K49" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="L49" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>365</v>
       </c>
       <c r="O49" s="7"/>
     </row>
@@ -3779,10 +3784,10 @@
         <v>52</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>29</v>
@@ -3791,22 +3796,22 @@
         <v>30</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="K50" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="L50" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="O50" s="7"/>
     </row>
@@ -3818,10 +3823,10 @@
         <v>54</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>29</v>
@@ -3830,25 +3835,25 @@
         <v>30</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K51" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="L51" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="O51" s="15" t="s">
         <v>377</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3859,10 +3864,10 @@
         <v>55</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>380</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>29</v>
@@ -3871,22 +3876,22 @@
         <v>102</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J52" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="K52" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="K52" s="8" t="s">
+      <c r="L52" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="O52" s="9"/>
     </row>
@@ -3896,10 +3901,10 @@
         <v>56</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>29</v>
@@ -3908,20 +3913,20 @@
         <v>102</v>
       </c>
       <c r="G53" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K53" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="L53" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>392</v>
       </c>
       <c r="O53" s="9"/>
     </row>
@@ -8692,32 +8697,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>394</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>396</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>398</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Abstracts/Website Presentation Database.xlsx
+++ b/Abstracts/Website Presentation Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reza\Desktop\ElDia2022.github.io\Abstracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E1CDF-E355-4D30-91B0-B61527F514E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D7519E-5CCC-4266-BC6D-86F55018DDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,35 +29,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Quinn changed to in-peson per email Mar 1, 8:27 am
-	-Robert Bruce Hull</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Change made from Session 1 to Session 2
-	-Robert Bruce Hull</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +45,49 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Change made from Session 1 to Session 2
+	-Robert Bruce Hull</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>withdrawn via email 3/1
+	-Abigail Kahler</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Quinn changed to in-peson per email Mar 1, 8:27 am
+	-Robert Bruce Hull</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -89,26 +103,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>withdrawn via email 3/1
-	-Abigail Kahler</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="427">
   <si>
     <t>RSVP</t>
   </si>
@@ -1406,12 +1406,72 @@
   <si>
     <t>Uncertainty is introduced in scientific analyses through the innate structure of our analyses and limits to field data collection.  When creating future predictions about the responses of natural systems to changing conditions, these uncertainties translate into potential prediction errors, which can affect the quality of stakeholders’ decisions.  Groundwater modeling is no different.  Scientific experts create models based on the abstraction and calibration to field data.  Typically, these models are provided to stakeholders with model predictions with little ability for the stakeholders to use the models themselves to explore other possible solutions.  Olsson has developed the Groundwater Evaluation Toolbox (GET) as an online platform to allow non-experts to use existing, calibrated models interactively, opening up interesting opportunities for multiple stakeholders to make more informed water resources decisions.  While this tool gives unprecedented access to groundwater models, it does not include any consideration of prediction uncertainty.  The aim of this study is to expand GET to include prediction uncertainty so that it is available for stakeholder consideration.  Initially, this will be limited to models that have already been calibrated using the uncertainty capabilities of the Parameter ESTimation (PEST) software.  Through Olsson, we will interface with stakeholders who have already used GET to assess the added value of including prediction uncertainties.</t>
   </si>
+  <si>
+    <t>Link to Poster</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=74f5d148-b124-4c57-ae8b-ae5b00273c15</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=3703227d-95aa-4625-bdc1-ae5a012d69c7</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=378781df-36af-4598-abe7-ae5a017eff45</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=84627ef3-9b02-4900-8fb5-ae5b00693d95</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=cc1b9b51-34e7-4f61-8089-ae5900e93c72</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=d78b9810-dbd1-4fb4-b9de-ae5b00524eea</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=97c30839-2340-405e-b9e0-ae5a01800dc5</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=5302a6bf-1a97-4d68-8759-ae5b006de959</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=9a75c979-fc6d-4503-b7e6-ae5b014f8f10</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=d21bf2e2-7313-4863-a761-ae5b006cc9a8</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=3f025d86-fa41-4b03-8e40-ae5b005b891d</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=5620d729-b190-4bfb-aecc-ae5b000ef622</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=30106cd0-cc9e-418b-aaa9-ae5b004afcad</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=85040172-6d33-4cee-a15e-ae5b005df2f4</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=f5496524-e972-4d10-bb98-ae5b000d8ee0</t>
+  </si>
+  <si>
+    <t>https://arizona.zoom.us/rec/share/hPxtMaApmmTu0y236PVJmDRilWW2teoLJswz67RweqiP--M87N4ZhOtfSX3YHf4.TDLXtd_9IJ3G_uyN</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=415ab6f6-4261-4337-b3ae-ae5b0038ed73</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=108ec635-1999-4564-b54f-ae5b001d57f5</t>
+  </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=3e12c8c1-574b-4237-81b2-ae5b004bbbe8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1459,6 +1519,27 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0E71EB"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1516,7 +1597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1547,6 +1628,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1770,10 +1867,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1857,44 +1954,43 @@
       <c r="AE1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
+      <c r="A2" s="11"/>
+      <c r="B2" s="5">
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>214</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>26</v>
+        <v>218</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="O2" s="17" t="s">
+        <v>219</v>
       </c>
       <c r="P2" s="10">
         <v>0.67083333333333328</v>
@@ -1905,118 +2001,119 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>36</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
+      <c r="A4" s="11"/>
       <c r="B4" s="5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="O4" s="19" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>53</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M5" s="24"/>
       <c r="O5" s="7"/>
       <c r="P5" s="10">
         <v>0.59583333333333333</v>
@@ -2026,42 +2123,41 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
-        <v>5</v>
+      <c r="B6" s="9">
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>379</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>56</v>
+        <v>380</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>57</v>
+        <v>382</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>58</v>
+        <v>383</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>60</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="10">
         <v>0.58819444444444446</v>
       </c>
@@ -2069,193 +2165,198 @@
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>68</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M8" s="24"/>
       <c r="O8" s="7"/>
       <c r="P8" s="10">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
+      <c r="A9" s="11"/>
       <c r="B9" s="5">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>84</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M9" s="24"/>
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="5">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M10" s="24"/>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
       <c r="B11" s="5">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>99</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M11" s="24"/>
       <c r="O11" s="7"/>
       <c r="P11" s="10">
         <v>0.61111111111111116</v>
@@ -2266,37 +2367,40 @@
         <v>1</v>
       </c>
       <c r="B12" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>107</v>
+        <v>53</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>409</v>
       </c>
       <c r="O12" s="7"/>
     </row>
@@ -2305,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>94</v>
@@ -2320,112 +2424,111 @@
         <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O13" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="P13" s="12">
         <v>0.68611111111111112</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>114</v>
-      </c>
+      <c r="A14" s="11"/>
       <c r="B14" s="5">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>115</v>
+        <v>331</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>46</v>
+        <v>332</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>117</v>
+        <v>333</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>118</v>
+        <v>334</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>335</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>120</v>
+        <v>336</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>122</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="10">
         <v>0.66319444444444442</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
+      <c r="A15" s="11"/>
       <c r="B15" s="5">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>127</v>
+        <v>321</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>128</v>
+        <v>322</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>130</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="10">
         <v>0.5805555555555556</v>
       </c>
@@ -2433,40 +2536,43 @@
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="5">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>132</v>
+        <v>325</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>133</v>
+        <v>326</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>137</v>
+        <v>328</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>138</v>
+        <v>329</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>411</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>139</v>
+        <v>330</v>
       </c>
       <c r="P16" s="10">
         <v>0.48680555555555555</v>
@@ -2475,97 +2581,95 @@
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="5">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>32</v>
+        <v>265</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>145</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M17" s="24"/>
       <c r="O17" s="7"/>
       <c r="P17" s="10">
         <v>0.51736111111111116</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
+      <c r="A18" s="11"/>
       <c r="B18" s="5">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>146</v>
+        <v>359</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>32</v>
+        <v>295</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>149</v>
+        <v>362</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>150</v>
+        <v>363</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>152</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="10">
         <v>0.69374999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="5">
-        <v>18</v>
+      <c r="A19" s="13"/>
+      <c r="B19" s="9">
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>153</v>
+        <v>385</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>154</v>
+        <v>386</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>29</v>
@@ -2574,111 +2678,112 @@
         <v>102</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>155</v>
+        <v>387</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>157</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="I19" s="6"/>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>389</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>160</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M19" s="24"/>
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="5">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>166</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M20" s="24"/>
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>1</v>
-      </c>
+      <c r="A21" s="11"/>
       <c r="B21" s="5">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>30</v>
+      <c r="F21" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>169</v>
+        <v>306</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>406</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M21" s="24"/>
       <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="9">
+        <v>1</v>
+      </c>
       <c r="B22" s="5">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>29</v>
@@ -2687,115 +2792,124 @@
         <v>102</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>175</v>
+        <v>355</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>177</v>
+        <v>357</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>178</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M22" s="24"/>
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="9">
+        <v>1</v>
+      </c>
       <c r="B23" s="5">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>402</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1</v>
       </c>
       <c r="B24" s="5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="O24" s="7"/>
+        <v>245</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1</v>
       </c>
       <c r="B25" s="5">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>192</v>
+        <v>345</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>29</v>
@@ -2804,25 +2918,26 @@
         <v>30</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>196</v>
+        <v>349</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>197</v>
+        <v>350</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>198</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M25" s="24"/>
       <c r="O25" s="16" t="s">
-        <v>199</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2830,91 +2945,99 @@
         <v>1</v>
       </c>
       <c r="B26" s="5">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>202</v>
+      <c r="G26" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>205</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M26" s="24"/>
       <c r="O26" s="16" t="s">
-        <v>206</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>1</v>
+      <c r="A27" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="B27" s="5">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>29</v>
+        <v>116</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="O27" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="9">
+        <v>1</v>
+      </c>
       <c r="B28" s="5">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>403</v>
+        <v>77</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>29</v>
@@ -2923,182 +3046,191 @@
         <v>30</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>219</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M28" s="24"/>
+      <c r="O28" s="9"/>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="5">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>225</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="M29" s="24"/>
       <c r="O29" s="7"/>
       <c r="P29" s="10">
         <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
       <c r="B30" s="5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>228</v>
+        <v>54</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>229</v>
+        <v>400</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>233</v>
+        <v>59</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="9">
+        <v>1</v>
+      </c>
       <c r="B31" s="5">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="O31" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="M31" s="24"/>
+      <c r="O31" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>1</v>
-      </c>
+      <c r="A32" s="11"/>
       <c r="B32" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>245</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M32" s="24"/>
       <c r="O32" s="16" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="P32" s="18">
         <v>0.47916666666666669</v>
@@ -3107,197 +3239,208 @@
     <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="5">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>254</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M33" s="24"/>
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="9">
+        <v>1</v>
+      </c>
       <c r="B34" s="5">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>260</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M34" s="24"/>
       <c r="O34" s="15" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="5">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="O35" s="7"/>
+        <v>343</v>
+      </c>
+      <c r="M35" s="24"/>
+      <c r="O35" s="19" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1</v>
       </c>
       <c r="B36" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>271</v>
+        <v>284</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>272</v>
+        <v>404</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="O36" s="9"/>
+        <v>290</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="P36" s="10">
         <v>0.67847222222222225</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>1</v>
-      </c>
+      <c r="A37" s="11"/>
       <c r="B37" s="5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>282</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M37" s="24"/>
       <c r="O37" s="15" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="P37" s="10">
         <v>0.60347222222222219</v>
@@ -3308,79 +3451,83 @@
         <v>1</v>
       </c>
       <c r="B38" s="5">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>284</v>
+        <v>123</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>285</v>
+        <v>124</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>404</v>
+        <v>126</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>289</v>
+        <v>128</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>291</v>
+        <v>129</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="5">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>292</v>
+        <v>61</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>294</v>
+        <v>63</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>295</v>
+        <v>64</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>296</v>
+        <v>65</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="O39" s="22" t="s">
-        <v>399</v>
+        <v>67</v>
+      </c>
+      <c r="M39" s="24"/>
+      <c r="O39" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="P39" s="10">
         <v>0.50972222222222219</v>
@@ -3391,61 +3538,60 @@
         <v>1</v>
       </c>
       <c r="B40" s="5">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>301</v>
+      <c r="G40" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>404</v>
+        <v>210</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>405</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M40" s="24"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="5">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>21</v>
@@ -3454,53 +3600,61 @@
         <v>32</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>309</v>
+        <v>145</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>418</v>
       </c>
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="5">
-        <v>42</v>
+      <c r="A42" s="9">
+        <v>1</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>315</v>
+        <v>24</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>317</v>
+        <v>25</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="P42" s="10">
         <v>0.50208333333333333</v>
@@ -3509,77 +3663,83 @@
     <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="5">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>320</v>
+        <v>292</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="O43" s="7"/>
+        <v>298</v>
+      </c>
+      <c r="M43" s="24"/>
+      <c r="O43" s="22" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="5">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>401</v>
+        <v>135</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>328</v>
+        <v>137</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>329</v>
+        <v>138</v>
+      </c>
+      <c r="M44" s="25" t="s">
+        <v>420</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>330</v>
+        <v>139</v>
       </c>
       <c r="P44" s="10">
         <v>0.70138888888888884</v>
@@ -3588,91 +3748,93 @@
     <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="5">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>331</v>
+        <v>179</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>332</v>
+        <v>180</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>334</v>
+        <v>126</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>335</v>
+        <v>182</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>336</v>
+        <v>183</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="O45" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="M45" s="24"/>
+      <c r="O45" s="23" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="46" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="5">
+        <v>29</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F46" s="5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>339</v>
+        <v>222</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>340</v>
+        <v>22</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>341</v>
+        <v>223</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>342</v>
+        <v>224</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="O46" s="15" t="s">
-        <v>344</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="O46" s="9"/>
     </row>
     <row r="47" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>1</v>
-      </c>
+      <c r="A47" s="11"/>
       <c r="B47" s="5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>29</v>
@@ -3681,113 +3843,129 @@
         <v>30</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="O47" s="15" t="s">
-        <v>352</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M47" s="24"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1</v>
       </c>
       <c r="B48" s="5">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="O48" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="O48" s="19" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="9">
+        <v>1</v>
+      </c>
       <c r="B49" s="5">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>359</v>
+        <v>200</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>360</v>
+        <v>201</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>361</v>
+        <v>202</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>362</v>
+        <v>203</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>363</v>
+        <v>204</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="O49" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="O49" s="19" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="5">
-        <v>52</v>
+      <c r="A50" s="9">
+        <v>1</v>
+      </c>
+      <c r="B50" s="9">
+        <v>54</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>366</v>
+        <v>270</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>29</v>
@@ -3796,137 +3974,149 @@
         <v>30</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>368</v>
+        <v>279</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="O50" s="7"/>
+        <v>376</v>
+      </c>
+      <c r="M50" s="24"/>
+      <c r="O50" s="19" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1</v>
       </c>
-      <c r="B51" s="4">
-        <v>54</v>
+      <c r="B51" s="5">
+        <v>3</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>373</v>
+      <c r="G51" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>374</v>
+        <v>41</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>375</v>
+        <v>42</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>377</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="M51" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="O51" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1</v>
       </c>
-      <c r="B52" s="4">
-        <v>55</v>
+      <c r="B52" s="5">
+        <v>36</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>378</v>
+        <v>269</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>29</v>
+        <v>270</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>380</v>
+        <v>271</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>382</v>
+        <v>273</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>383</v>
+        <v>274</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>384</v>
+        <v>275</v>
+      </c>
+      <c r="M52" s="26" t="s">
+        <v>425</v>
       </c>
       <c r="O52" s="9"/>
     </row>
     <row r="53" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="4">
-        <v>56</v>
+      <c r="A53" s="11"/>
+      <c r="B53" s="5">
+        <v>10</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>385</v>
+        <v>92</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>386</v>
+        <v>93</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>387</v>
+        <v>95</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I53" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="J53" s="7" t="s">
-        <v>389</v>
+        <v>97</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>390</v>
+        <v>98</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>391</v>
+        <v>99</v>
+      </c>
+      <c r="M53" s="26" t="s">
+        <v>426</v>
       </c>
       <c r="O53" s="9"/>
     </row>
@@ -8621,63 +8811,86 @@
       <c r="O991" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O53" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O53">
+      <sortCondition ref="C1:C53"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" location="heading=h.30j0zll" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K3" r:id="rId2" location="heading=h.gjdgxs" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K42" r:id="rId1" location="heading=h.30j0zll" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K31" r:id="rId2" location="heading=h.gjdgxs" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K51" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K39" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K53" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K41" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K45" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K2" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K46" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K4" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K24" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K52" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K36" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K43" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K26" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K37" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K15" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K16" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K14" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K35" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K22" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K18" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K47" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K6" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K19" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="M7" r:id="rId53" xr:uid="{4382B88A-5696-41A8-9093-2528EE5F957D}"/>
+    <hyperlink ref="M12" r:id="rId54" xr:uid="{27F70C3B-9F80-4CE6-968E-9984D79A38DC}"/>
+    <hyperlink ref="M13" r:id="rId55" xr:uid="{5EAE50FA-9A02-4F98-AFA7-5042534C51C1}"/>
+    <hyperlink ref="M16" r:id="rId56" xr:uid="{DBECD20B-8393-4B53-A4FC-CC1E235875E1}"/>
+    <hyperlink ref="M23" r:id="rId57" xr:uid="{4C09165F-1D49-4B85-8C83-0762BF2D185D}"/>
+    <hyperlink ref="M24" r:id="rId58" xr:uid="{FFEAF2C7-0134-49A8-9185-8A10E7606A6B}"/>
+    <hyperlink ref="M27" r:id="rId59" xr:uid="{9B785D0E-B7F9-4C1D-828E-D43B801A7DC4}"/>
+    <hyperlink ref="M30" r:id="rId60" xr:uid="{C838EEFB-54AA-441F-B3B4-16DE6BC38AB0}"/>
+    <hyperlink ref="M36" r:id="rId61" xr:uid="{7812BC30-3818-4EC8-9B0F-E3A05D7FEC5D}"/>
+    <hyperlink ref="M38" r:id="rId62" xr:uid="{3E420181-5A12-4A7B-8F21-D99D9243B323}"/>
+    <hyperlink ref="M41" r:id="rId63" xr:uid="{3D0752EA-DA37-4EE5-86F2-2931DF5BD894}"/>
+    <hyperlink ref="M42" r:id="rId64" xr:uid="{4453BFF7-9421-446B-BDA6-6A693E8FA9D2}"/>
+    <hyperlink ref="M44" r:id="rId65" xr:uid="{4EB99F66-D345-452F-9B21-23B4FB84567F}"/>
+    <hyperlink ref="M46" r:id="rId66" xr:uid="{0DC60F48-A222-4CD7-993D-F35CBEDB8D1E}"/>
+    <hyperlink ref="M48" r:id="rId67" xr:uid="{BB91109D-DB87-4399-9CB6-6B08E793118C}"/>
+    <hyperlink ref="M49" r:id="rId68" xr:uid="{3157FA67-93E2-4019-858C-ADB80D3FA447}"/>
+    <hyperlink ref="M51" r:id="rId69" xr:uid="{E53BDC66-61F2-43AF-B403-F5268CB778C5}"/>
+    <hyperlink ref="M52" r:id="rId70" xr:uid="{08AE198B-23E3-433D-A31A-2862D7DE85DC}"/>
+    <hyperlink ref="M53" r:id="rId71" xr:uid="{CA39E8BE-DE38-49B2-8D65-AD5F8E5A5C87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId53"/>
+  <legacyDrawing r:id="rId72"/>
 </worksheet>
 </file>
 

--- a/Abstracts/Website Presentation Database.xlsx
+++ b/Abstracts/Website Presentation Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reza\Desktop\ElDia2022.github.io\Abstracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D7519E-5CCC-4266-BC6D-86F55018DDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B23A832-BB28-4EE8-830C-018DD974945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="426">
   <si>
     <t>RSVP</t>
   </si>
@@ -1405,9 +1405,6 @@
   </si>
   <si>
     <t>Uncertainty is introduced in scientific analyses through the innate structure of our analyses and limits to field data collection.  When creating future predictions about the responses of natural systems to changing conditions, these uncertainties translate into potential prediction errors, which can affect the quality of stakeholders’ decisions.  Groundwater modeling is no different.  Scientific experts create models based on the abstraction and calibration to field data.  Typically, these models are provided to stakeholders with model predictions with little ability for the stakeholders to use the models themselves to explore other possible solutions.  Olsson has developed the Groundwater Evaluation Toolbox (GET) as an online platform to allow non-experts to use existing, calibrated models interactively, opening up interesting opportunities for multiple stakeholders to make more informed water resources decisions.  While this tool gives unprecedented access to groundwater models, it does not include any consideration of prediction uncertainty.  The aim of this study is to expand GET to include prediction uncertainty so that it is available for stakeholder consideration.  Initially, this will be limited to models that have already been calibrated using the uncertainty capabilities of the Parameter ESTimation (PEST) software.  Through Olsson, we will interface with stakeholders who have already used GET to assess the added value of including prediction uncertainties.</t>
-  </si>
-  <si>
-    <t>Link to Poster</t>
   </si>
   <si>
     <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=74f5d148-b124-4c57-ae8b-ae5b00273c15</t>
@@ -1867,10 +1864,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2195,7 @@
         <v>76</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O7" s="9"/>
     </row>
@@ -2400,7 +2397,7 @@
         <v>53</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O12" s="7"/>
     </row>
@@ -2442,7 +2439,7 @@
         <v>151</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>152</v>
@@ -2569,7 +2566,7 @@
         <v>329</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O16" s="15" t="s">
         <v>330</v>
@@ -2850,7 +2847,7 @@
         <v>113</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O23" s="9"/>
     </row>
@@ -2892,7 +2889,7 @@
         <v>245</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>246</v>
@@ -3020,7 +3017,7 @@
         <v>121</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O27" s="19" t="s">
         <v>122</v>
@@ -3145,7 +3142,7 @@
         <v>59</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>60</v>
@@ -3394,7 +3391,7 @@
         <v>290</v>
       </c>
       <c r="M36" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>291</v>
@@ -3484,7 +3481,7 @@
         <v>129</v>
       </c>
       <c r="M38" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O38" s="19" t="s">
         <v>130</v>
@@ -3609,7 +3606,7 @@
         <v>145</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O41" s="7"/>
     </row>
@@ -3651,7 +3648,7 @@
         <v>25</v>
       </c>
       <c r="M42" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O42" s="9" t="s">
         <v>26</v>
@@ -3736,7 +3733,7 @@
         <v>138</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O44" s="15" t="s">
         <v>139</v>
@@ -3821,7 +3818,7 @@
         <v>225</v>
       </c>
       <c r="M46" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O46" s="9"/>
     </row>
@@ -3901,7 +3898,7 @@
         <v>282</v>
       </c>
       <c r="M48" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O48" s="19" t="s">
         <v>283</v>
@@ -3945,11 +3942,9 @@
         <v>205</v>
       </c>
       <c r="M49" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>407</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N49" s="9"/>
       <c r="O49" s="19" t="s">
         <v>206</v>
       </c>
@@ -4034,7 +4029,7 @@
         <v>43</v>
       </c>
       <c r="M51" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O51" s="9"/>
     </row>
@@ -4076,7 +4071,7 @@
         <v>275</v>
       </c>
       <c r="M52" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O52" s="9"/>
     </row>
@@ -4116,7 +4111,7 @@
         <v>99</v>
       </c>
       <c r="M53" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O53" s="9"/>
     </row>

--- a/Abstracts/Website Presentation Database.xlsx
+++ b/Abstracts/Website Presentation Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reza\Desktop\ElDia2022.github.io\Abstracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B23A832-BB28-4EE8-830C-018DD974945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403D081C-EA84-40E7-B518-CD9058A515DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,35 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Quinn changed to in-peson per email Mar 1, 8:27 am
+	-Robert Bruce Hull</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Change made from Session 1 to Session 2
+	-Robert Bruce Hull</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -45,49 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Change made from Session 1 to Session 2
-	-Robert Bruce Hull</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>withdrawn via email 3/1
-	-Abigail Kahler</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Quinn changed to in-peson per email Mar 1, 8:27 am
-	-Robert Bruce Hull</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -103,12 +89,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>withdrawn via email 3/1
+	-Abigail Kahler</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="427">
   <si>
     <t>RSVP</t>
   </si>
@@ -1463,12 +1463,15 @@
   <si>
     <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=3e12c8c1-574b-4237-81b2-ae5b004bbbe8</t>
   </si>
+  <si>
+    <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=5bf158e1-879d-4c2c-a34f-ae5b015f07ff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1540,6 +1543,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1594,7 +1602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1643,6 +1651,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1864,10 +1873,10 @@
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N49" sqref="N49"/>
+      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1951,43 +1960,47 @@
       <c r="AE1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="5">
-        <v>28</v>
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="O2" s="17" t="s">
-        <v>219</v>
+        <v>25</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="P2" s="10">
         <v>0.67083333333333328</v>
@@ -1998,119 +2011,125 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="M3" s="24"/>
-      <c r="O3" s="9"/>
+      <c r="O3" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
       <c r="B4" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="M4" s="24"/>
-      <c r="O4" s="19" t="s">
-        <v>233</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="M5" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="10">
         <v>0.59583333333333333</v>
@@ -2120,41 +2139,45 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>380</v>
+        <v>56</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>382</v>
+        <v>57</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>383</v>
+        <v>58</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="M6" s="24"/>
-      <c r="O6" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="P6" s="10">
         <v>0.58819444444444446</v>
       </c>
@@ -2162,118 +2185,122 @@
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="O7" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="O7" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="5">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="M8" s="24"/>
+        <v>76</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>407</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="10">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
       <c r="B9" s="5">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="M9" s="24"/>
       <c r="O9" s="9"/>
@@ -2281,79 +2308,79 @@
     <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="5">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="M10" s="24"/>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
+      <c r="A11" s="11"/>
       <c r="B11" s="5">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>30</v>
+        <v>94</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="M11" s="24"/>
+        <v>99</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>425</v>
+      </c>
       <c r="O11" s="7"/>
       <c r="P11" s="10">
         <v>0.61111111111111116</v>
@@ -2364,41 +2391,39 @@
         <v>1</v>
       </c>
       <c r="B12" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>408</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M12" s="24"/>
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,13 +2431,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>94</v>
@@ -2421,111 +2446,121 @@
         <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>152</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="O13" s="9"/>
       <c r="P13" s="12">
         <v>0.68611111111111112</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="5">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>331</v>
+        <v>115</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
+        <v>116</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>334</v>
+        <v>118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="M14" s="24"/>
-      <c r="O14" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>122</v>
+      </c>
       <c r="P14" s="10">
         <v>0.66319444444444442</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
       <c r="B15" s="5">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>319</v>
+        <v>124</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>320</v>
+        <v>125</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>321</v>
+        <v>127</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>322</v>
+        <v>128</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="O15" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="P15" s="10">
         <v>0.5805555555555556</v>
       </c>
@@ -2533,43 +2568,43 @@
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="5">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>401</v>
+        <v>135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>328</v>
+        <v>137</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>410</v>
+        <v>138</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>419</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>330</v>
+        <v>139</v>
       </c>
       <c r="P16" s="10">
         <v>0.48680555555555555</v>
@@ -2578,95 +2613,103 @@
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="5">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>262</v>
+        <v>140</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>263</v>
+        <v>141</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>143</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="M17" s="24"/>
+        <v>145</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>417</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="10">
         <v>0.51736111111111116</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
       <c r="B18" s="5">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>359</v>
+        <v>146</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>360</v>
+        <v>147</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>362</v>
+        <v>149</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>363</v>
+        <v>150</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="M18" s="24"/>
-      <c r="O18" s="9"/>
+        <v>151</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="P18" s="10">
         <v>0.69374999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9">
-        <v>56</v>
+      <c r="A19" s="11"/>
+      <c r="B19" s="5">
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>385</v>
+        <v>153</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>386</v>
+        <v>154</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>29</v>
@@ -2675,20 +2718,22 @@
         <v>102</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>387</v>
+        <v>155</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I19" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>158</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>390</v>
+        <v>159</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>391</v>
+        <v>160</v>
       </c>
       <c r="M19" s="24"/>
       <c r="O19" s="7"/>
@@ -2696,91 +2741,91 @@
     <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="5">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="M20" s="24"/>
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13">
+        <v>1</v>
+      </c>
       <c r="B21" s="5">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>102</v>
+      <c r="F21" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>306</v>
+        <v>169</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>307</v>
+        <v>171</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>309</v>
+        <v>406</v>
       </c>
       <c r="M21" s="24"/>
       <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>1</v>
-      </c>
+      <c r="A22" s="11"/>
       <c r="B22" s="5">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>353</v>
+        <v>173</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>354</v>
+        <v>174</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>29</v>
@@ -2789,124 +2834,118 @@
         <v>102</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>355</v>
+        <v>175</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>357</v>
+        <v>177</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="M22" s="24"/>
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>1</v>
-      </c>
+      <c r="A23" s="11"/>
       <c r="B23" s="5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M23" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="O23" s="9"/>
+        <v>184</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="O23" s="23" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1</v>
       </c>
       <c r="B24" s="5">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>246</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M24" s="24"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1</v>
       </c>
       <c r="B25" s="5">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>345</v>
+        <v>192</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>346</v>
+        <v>193</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>29</v>
@@ -2915,26 +2954,26 @@
         <v>30</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>347</v>
+        <v>194</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>348</v>
+        <v>195</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>196</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>350</v>
+        <v>197</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>351</v>
+        <v>198</v>
       </c>
       <c r="M25" s="24"/>
       <c r="O25" s="16" t="s">
-        <v>352</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2942,99 +2981,96 @@
         <v>1</v>
       </c>
       <c r="B26" s="5">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E26" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>301</v>
+      <c r="G26" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>404</v>
+        <v>22</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="M26" s="24"/>
+        <v>205</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="N26" s="9"/>
       <c r="O26" s="16" t="s">
-        <v>405</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>114</v>
+      <c r="A27" s="9">
+        <v>1</v>
       </c>
       <c r="B27" s="5">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>46</v>
+        <v>208</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>122</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="O27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>1</v>
-      </c>
+      <c r="A28" s="11"/>
       <c r="B28" s="5">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>78</v>
+        <v>214</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>403</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>29</v>
@@ -3043,191 +3079,191 @@
         <v>30</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="M28" s="24"/>
-      <c r="O28" s="9"/>
+      <c r="O28" s="17" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="5">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M29" s="24"/>
+        <v>225</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>420</v>
+      </c>
       <c r="O29" s="7"/>
       <c r="P29" s="10">
         <v>0.57291666666666663</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>1</v>
-      </c>
+      <c r="A30" s="11"/>
       <c r="B30" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>56</v>
+        <v>226</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>400</v>
+        <v>229</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>60</v>
+        <v>232</v>
+      </c>
+      <c r="M30" s="24"/>
+      <c r="O30" s="19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>1</v>
-      </c>
+      <c r="A31" s="11"/>
       <c r="B31" s="5">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" s="24"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5">
         <v>32</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M31" s="24"/>
-      <c r="O31" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="5">
-        <v>34</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>255</v>
+        <v>108</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="M32" s="24"/>
+        <v>245</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>412</v>
+      </c>
       <c r="O32" s="16" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="P32" s="18">
         <v>0.47916666666666669</v>
@@ -3236,208 +3272,206 @@
     <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="5">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="M33" s="24"/>
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>1</v>
-      </c>
+      <c r="A34" s="11"/>
       <c r="B34" s="5">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="M34" s="24"/>
       <c r="O34" s="15" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="5">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>338</v>
+        <v>263</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>343</v>
+        <v>268</v>
       </c>
       <c r="M35" s="24"/>
-      <c r="O35" s="19" t="s">
-        <v>344</v>
-      </c>
+      <c r="O35" s="9"/>
     </row>
     <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1</v>
       </c>
       <c r="B36" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>286</v>
+        <v>269</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>404</v>
+        <v>272</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M36" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>291</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="O36" s="9"/>
       <c r="P36" s="10">
         <v>0.67847222222222225</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="9">
+        <v>1</v>
+      </c>
       <c r="B37" s="5">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="M37" s="24"/>
+        <v>282</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>421</v>
+      </c>
       <c r="O37" s="15" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="P37" s="10">
         <v>0.60347222222222219</v>
@@ -3448,83 +3482,83 @@
         <v>1</v>
       </c>
       <c r="B38" s="5">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>123</v>
+        <v>284</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>125</v>
+        <v>286</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>126</v>
+        <v>404</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="M38" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="O38" s="19" t="s">
-        <v>130</v>
+        <v>415</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="5">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>61</v>
+        <v>292</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>63</v>
+        <v>294</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>64</v>
+        <v>295</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>65</v>
+        <v>296</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>66</v>
+        <v>297</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="M39" s="24"/>
-      <c r="O39" s="9" t="s">
-        <v>68</v>
+      <c r="O39" s="22" t="s">
+        <v>399</v>
       </c>
       <c r="P39" s="10">
         <v>0.50972222222222219</v>
@@ -3535,60 +3569,64 @@
         <v>1</v>
       </c>
       <c r="B40" s="5">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>209</v>
+      <c r="G40" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>210</v>
+        <v>404</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>211</v>
+        <v>302</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="M40" s="24"/>
-      <c r="O40" s="9"/>
+        <v>304</v>
+      </c>
+      <c r="M40" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="5">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>141</v>
+        <v>305</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>21</v>
@@ -3597,61 +3635,55 @@
         <v>32</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>143</v>
+        <v>307</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="M41" s="26" t="s">
-        <v>417</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M41" s="24"/>
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>1</v>
-      </c>
-      <c r="B42" s="9">
-        <v>1</v>
+      <c r="A42" s="11"/>
+      <c r="B42" s="5">
+        <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>18</v>
+        <v>311</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>26</v>
+        <v>316</v>
+      </c>
+      <c r="M42" s="24"/>
+      <c r="O42" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="P42" s="10">
         <v>0.50208333333333333</v>
@@ -3660,83 +3692,81 @@
     <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="5">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>294</v>
+        <v>318</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="M43" s="24"/>
-      <c r="O43" s="22" t="s">
-        <v>399</v>
-      </c>
+      <c r="O43" s="9"/>
     </row>
     <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="5">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>132</v>
+        <v>325</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>133</v>
+        <v>326</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>137</v>
+        <v>328</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M44" s="25" t="s">
-        <v>419</v>
+        <v>329</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>410</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>139</v>
+        <v>330</v>
       </c>
       <c r="P44" s="10">
         <v>0.70138888888888884</v>
@@ -3745,93 +3775,93 @@
     <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="5">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>179</v>
+        <v>331</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>181</v>
+        <v>333</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>126</v>
+        <v>334</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>182</v>
+        <v>335</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>183</v>
+        <v>336</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>184</v>
+        <v>337</v>
       </c>
       <c r="M45" s="24"/>
-      <c r="O45" s="23" t="s">
-        <v>402</v>
-      </c>
+      <c r="O45" s="9"/>
     </row>
     <row r="46" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="5">
+        <v>46</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F46" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>222</v>
+        <v>339</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>22</v>
+        <v>340</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>224</v>
+        <v>342</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="M46" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="O46" s="9"/>
+        <v>343</v>
+      </c>
+      <c r="M46" s="24"/>
+      <c r="O46" s="19" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="47" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="9">
+        <v>1</v>
+      </c>
       <c r="B47" s="5">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>29</v>
@@ -3840,127 +3870,116 @@
         <v>30</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="M47" s="24"/>
-      <c r="O47" s="9"/>
+      <c r="O47" s="19" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="48" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1</v>
       </c>
       <c r="B48" s="5">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="M48" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="O48" s="19" t="s">
-        <v>283</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M48" s="24"/>
+      <c r="O48" s="9"/>
     </row>
     <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>1</v>
-      </c>
+      <c r="A49" s="11"/>
       <c r="B49" s="5">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="M49" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="N49" s="9"/>
-      <c r="O49" s="19" t="s">
-        <v>206</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M49" s="24"/>
+      <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>1</v>
-      </c>
-      <c r="B50" s="9">
-        <v>54</v>
+      <c r="A50" s="11"/>
+      <c r="B50" s="5">
+        <v>52</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>270</v>
+        <v>366</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>29</v>
@@ -3969,150 +3988,142 @@
         <v>30</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M50" s="24"/>
-      <c r="O50" s="19" t="s">
-        <v>377</v>
-      </c>
+      <c r="O50" s="9"/>
     </row>
     <row r="51" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1</v>
       </c>
-      <c r="B51" s="5">
-        <v>3</v>
+      <c r="B51" s="9">
+        <v>54</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>39</v>
+      <c r="G51" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>41</v>
+        <v>374</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M51" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="O51" s="9"/>
+        <v>376</v>
+      </c>
+      <c r="M51" s="24"/>
+      <c r="O51" s="19" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1</v>
       </c>
-      <c r="B52" s="5">
-        <v>36</v>
+      <c r="B52" s="9">
+        <v>55</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>269</v>
+        <v>378</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>94</v>
+        <v>379</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>271</v>
+        <v>380</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="M52" s="26" t="s">
-        <v>424</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M52" s="24"/>
       <c r="O52" s="9"/>
     </row>
     <row r="53" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="5">
-        <v>10</v>
+      <c r="A53" s="13"/>
+      <c r="B53" s="9">
+        <v>56</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>92</v>
+        <v>385</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>93</v>
+        <v>386</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>95</v>
+        <v>387</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="I53" s="6"/>
       <c r="J53" s="7" t="s">
-        <v>97</v>
+        <v>389</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M53" s="26" t="s">
-        <v>425</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M53" s="24"/>
       <c r="O53" s="9"/>
     </row>
     <row r="54" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -8808,81 +8819,81 @@
   </sheetData>
   <autoFilter ref="A1:O53" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O53">
-      <sortCondition ref="C1:C53"/>
+      <sortCondition ref="B1:B53"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="K42" r:id="rId1" location="heading=h.30j0zll" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K31" r:id="rId2" location="heading=h.gjdgxs" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K51" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K30" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K39" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K53" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K41" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K13" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K45" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K2" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K46" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K4" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K24" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K52" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K36" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K43" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K26" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K37" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K15" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K16" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K14" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K35" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K22" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K18" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K47" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K6" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K19" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="M7" r:id="rId53" xr:uid="{4382B88A-5696-41A8-9093-2528EE5F957D}"/>
-    <hyperlink ref="M12" r:id="rId54" xr:uid="{27F70C3B-9F80-4CE6-968E-9984D79A38DC}"/>
-    <hyperlink ref="M13" r:id="rId55" xr:uid="{5EAE50FA-9A02-4F98-AFA7-5042534C51C1}"/>
-    <hyperlink ref="M16" r:id="rId56" xr:uid="{DBECD20B-8393-4B53-A4FC-CC1E235875E1}"/>
-    <hyperlink ref="M23" r:id="rId57" xr:uid="{4C09165F-1D49-4B85-8C83-0762BF2D185D}"/>
-    <hyperlink ref="M24" r:id="rId58" xr:uid="{FFEAF2C7-0134-49A8-9185-8A10E7606A6B}"/>
-    <hyperlink ref="M27" r:id="rId59" xr:uid="{9B785D0E-B7F9-4C1D-828E-D43B801A7DC4}"/>
-    <hyperlink ref="M30" r:id="rId60" xr:uid="{C838EEFB-54AA-441F-B3B4-16DE6BC38AB0}"/>
-    <hyperlink ref="M36" r:id="rId61" xr:uid="{7812BC30-3818-4EC8-9B0F-E3A05D7FEC5D}"/>
-    <hyperlink ref="M38" r:id="rId62" xr:uid="{3E420181-5A12-4A7B-8F21-D99D9243B323}"/>
-    <hyperlink ref="M41" r:id="rId63" xr:uid="{3D0752EA-DA37-4EE5-86F2-2931DF5BD894}"/>
-    <hyperlink ref="M42" r:id="rId64" xr:uid="{4453BFF7-9421-446B-BDA6-6A693E8FA9D2}"/>
-    <hyperlink ref="M44" r:id="rId65" xr:uid="{4EB99F66-D345-452F-9B21-23B4FB84567F}"/>
-    <hyperlink ref="M46" r:id="rId66" xr:uid="{0DC60F48-A222-4CD7-993D-F35CBEDB8D1E}"/>
-    <hyperlink ref="M48" r:id="rId67" xr:uid="{BB91109D-DB87-4399-9CB6-6B08E793118C}"/>
-    <hyperlink ref="M49" r:id="rId68" xr:uid="{3157FA67-93E2-4019-858C-ADB80D3FA447}"/>
-    <hyperlink ref="M51" r:id="rId69" xr:uid="{E53BDC66-61F2-43AF-B403-F5268CB778C5}"/>
-    <hyperlink ref="M52" r:id="rId70" xr:uid="{08AE198B-23E3-433D-A31A-2862D7DE85DC}"/>
-    <hyperlink ref="M53" r:id="rId71" xr:uid="{CA39E8BE-DE38-49B2-8D65-AD5F8E5A5C87}"/>
+    <hyperlink ref="K2" r:id="rId1" location="heading=h.30j0zll" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" location="heading=h.gjdgxs" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="M8" r:id="rId53" xr:uid="{4382B88A-5696-41A8-9093-2528EE5F957D}"/>
+    <hyperlink ref="M5" r:id="rId54" xr:uid="{27F70C3B-9F80-4CE6-968E-9984D79A38DC}"/>
+    <hyperlink ref="M18" r:id="rId55" xr:uid="{5EAE50FA-9A02-4F98-AFA7-5042534C51C1}"/>
+    <hyperlink ref="M44" r:id="rId56" xr:uid="{DBECD20B-8393-4B53-A4FC-CC1E235875E1}"/>
+    <hyperlink ref="M13" r:id="rId57" xr:uid="{4C09165F-1D49-4B85-8C83-0762BF2D185D}"/>
+    <hyperlink ref="M32" r:id="rId58" xr:uid="{FFEAF2C7-0134-49A8-9185-8A10E7606A6B}"/>
+    <hyperlink ref="M14" r:id="rId59" xr:uid="{9B785D0E-B7F9-4C1D-828E-D43B801A7DC4}"/>
+    <hyperlink ref="M6" r:id="rId60" xr:uid="{C838EEFB-54AA-441F-B3B4-16DE6BC38AB0}"/>
+    <hyperlink ref="M38" r:id="rId61" xr:uid="{7812BC30-3818-4EC8-9B0F-E3A05D7FEC5D}"/>
+    <hyperlink ref="M15" r:id="rId62" xr:uid="{3E420181-5A12-4A7B-8F21-D99D9243B323}"/>
+    <hyperlink ref="M17" r:id="rId63" xr:uid="{3D0752EA-DA37-4EE5-86F2-2931DF5BD894}"/>
+    <hyperlink ref="M2" r:id="rId64" xr:uid="{4453BFF7-9421-446B-BDA6-6A693E8FA9D2}"/>
+    <hyperlink ref="M16" r:id="rId65" xr:uid="{4EB99F66-D345-452F-9B21-23B4FB84567F}"/>
+    <hyperlink ref="M29" r:id="rId66" xr:uid="{0DC60F48-A222-4CD7-993D-F35CBEDB8D1E}"/>
+    <hyperlink ref="M37" r:id="rId67" xr:uid="{BB91109D-DB87-4399-9CB6-6B08E793118C}"/>
+    <hyperlink ref="M26" r:id="rId68" xr:uid="{3157FA67-93E2-4019-858C-ADB80D3FA447}"/>
+    <hyperlink ref="M4" r:id="rId69" xr:uid="{E53BDC66-61F2-43AF-B403-F5268CB778C5}"/>
+    <hyperlink ref="M36" r:id="rId70" xr:uid="{08AE198B-23E3-433D-A31A-2862D7DE85DC}"/>
+    <hyperlink ref="M11" r:id="rId71" xr:uid="{CA39E8BE-DE38-49B2-8D65-AD5F8E5A5C87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId72"/>

--- a/Abstracts/Website Presentation Database.xlsx
+++ b/Abstracts/Website Presentation Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reza\Desktop\ElDia2022.github.io\Abstracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403D081C-EA84-40E7-B518-CD9058A515DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEA764B-8721-4727-BE22-A91BFEB20A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>has time conflict with this session
+	-Abigail Kahler
+Quinn Switched Ava from Session 1 to Session 2
+	-Robert Bruce Hull</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
@@ -57,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -66,10 +82,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>has time conflict with this session
-	-Abigail Kahler
-Quinn Switched Ava from Session 1 to Session 2
-	-Robert Bruce Hull</t>
+          <t>withdrawn via email 3/1
+	-Abigail Kahler</t>
         </r>
       </text>
     </comment>
@@ -89,26 +103,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>withdrawn via email 3/1
-	-Abigail Kahler</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="454">
   <si>
     <t>RSVP</t>
   </si>
@@ -1466,12 +1466,93 @@
   <si>
     <t>https://arizona.hosted.panopto.com/Panopto/Pages/Viewer.aspx?id=5bf158e1-879d-4c2c-a34f-ae5b015f07ff</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/10uGYK5RtdSlDZZ3IiBJgtHsEft_gJ6_a/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1KoY0mD88Jm1O3MFg5wp0nrRVhFjktzSZ/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1AyD2-CwguPqC7kq8DhLhCAGUvslWKeSN/view?usp=sharing </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1H0QCoMynB0Wr7ETFG_Y017zRXvSsO7Fb/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1N-V40UTVEkdJg8QBjkRLYaXBc1G1Td1P/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1PiAUWWkHfjBIREYTJ2VzMS2mqr--10lW/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/13akB6Cd0oUFbbkJ5WqGEN5nzcVGoKPno/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1sMijVIWC34_DHyO3_8AfAicCvhtfPQuj/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1vBByYIk_ZzgJafWy4bQ2z8FdWApYarc8/view?usp=sharing </t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1c5jpa4OTQQ3nfkz6jCXDE36qeZWaZU7F/edit?usp=sharing&amp;ouid=107440759043472227104&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uxVOVwlrjNKrNKJ05zZpcTFc5I-xIhLi/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/185fyYMUgGbaZ-womf4Z2jixyO0b_SD31/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1G4m3xehaNu2scnOybWljUe5Q4FJDzxQh/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/10D2TGTqZEqtfLi9ES4oIlAoKfo5qQihO/view?usp=sharing </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bTz9FgIwAFFQIMwKDdGD1WXl64GxPax1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1I5QorFeA6iQsvzA-c7LsIikRhejNNaBT/view?usp=sharing </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZxreWEB26FsJ5U4gw8DCvJ4u5USSATT0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1U6QT2yVhdADwYygZOJeb_kZl3OnrMAzf/view?usp=sharing </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fbjESLxyXit0x8YBYhi6ukf-5fXvpgRR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1QTc9SDzH27_U1-uv7z9aCS5UZLsQa8xU/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1FZ0nIB9gYzTpBGIRXSqVEGR08vuYUlnZ/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1E3_U8vOLLkbPWaqramqmCZ8z6nCHDdcD/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/presentation/d/18HWVaMn2eMyXT3NuRrZU6qTPa6gMI4Gh/edit?usp=sharing&amp;ouid=107440759043472227104&amp;rtpof=true&amp;sd=true </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1C7pDgA8_X6eVNDyNSd_dh2aXeLFp90DY/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/13x6ojR-_YmMlQcXbcX8fneIq65KGBLpC/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1t8EJ_qjBrh9v_dftxpftO_u6WqwmaU84/view?usp=sharing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1Ms59s-VnrVB-rkvaYDSzwGdZlNL2YvMo/view?usp=sharing </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1548,6 +1629,13 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1599,10 +1687,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1652,8 +1741,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1867,16 +1958,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AE991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
+      <selection pane="bottomRight" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1959,7 +2050,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2007,17 +2098,15 @@
       </c>
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
+      <c r="A3" s="11"/>
       <c r="B3" s="5">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>214</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>403</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>29</v>
@@ -2026,26 +2115,29 @@
         <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="M3" s="24"/>
-      <c r="O3" s="9" t="s">
-        <v>36</v>
+      <c r="N3" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2053,44 +2145,45 @@
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
+      <c r="F4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>423</v>
+        <v>107</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="31" t="s">
+        <v>429</v>
       </c>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2135,7 +2228,7 @@
         <v>0.59583333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2185,44 +2278,47 @@
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>63</v>
+      <c r="F7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="M7" s="24"/>
-      <c r="O7" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="5">
         <v>7</v>
@@ -2270,80 +2366,85 @@
         <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="M9" s="24"/>
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="5">
-        <v>9</v>
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>378</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>86</v>
+        <v>379</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>87</v>
+        <v>380</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>89</v>
+        <v>382</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>90</v>
+        <v>383</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>91</v>
+        <v>384</v>
       </c>
       <c r="M10" s="24"/>
+      <c r="N10" s="31" t="s">
+        <v>431</v>
+      </c>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="5">
         <v>10</v>
@@ -2387,17 +2488,15 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
+      <c r="A12" s="11"/>
       <c r="B12" s="5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>29</v>
@@ -2406,27 +2505,30 @@
         <v>102</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="M12" s="24"/>
+      <c r="N12" s="31" t="s">
+        <v>432</v>
+      </c>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2471,7 +2573,7 @@
         <v>0.68611111111111112</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>114</v>
       </c>
@@ -2518,7 +2620,7 @@
         <v>0.66319444444444442</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -2565,7 +2667,7 @@
         <v>0.5805555555555556</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="5">
         <v>15</v>
@@ -2610,7 +2712,7 @@
         <v>0.48680555555555555</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="5">
         <v>16</v>
@@ -2653,7 +2755,7 @@
         <v>0.51736111111111116</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -2703,75 +2805,78 @@
     <row r="19" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="5">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>102</v>
+      <c r="F19" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="M19" s="24"/>
+      <c r="N19" s="31" t="s">
+        <v>430</v>
+      </c>
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="M20" s="24"/>
       <c r="O20" s="7"/>
@@ -2814,18 +2919,21 @@
         <v>406</v>
       </c>
       <c r="M21" s="24"/>
+      <c r="N21" s="31" t="s">
+        <v>433</v>
+      </c>
       <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="5">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>174</v>
+        <v>332</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>29</v>
@@ -2834,22 +2942,22 @@
         <v>102</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>175</v>
+        <v>333</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>126</v>
+        <v>334</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>335</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>177</v>
+        <v>336</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c r="M22" s="24"/>
       <c r="O22" s="7"/>
@@ -2857,55 +2965,54 @@
     <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="5">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>181</v>
+      <c r="F23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>183</v>
+        <v>322</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>184</v>
+        <v>323</v>
       </c>
       <c r="M23" s="24"/>
-      <c r="O23" s="23" t="s">
-        <v>402</v>
-      </c>
+      <c r="N23" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>1</v>
-      </c>
+      <c r="A24" s="11"/>
       <c r="B24" s="5">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>29</v>
@@ -2914,194 +3021,189 @@
         <v>102</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="M24" s="24"/>
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>1</v>
-      </c>
+      <c r="A25" s="11"/>
       <c r="B25" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>192</v>
+        <v>359</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>193</v>
+        <v>360</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>196</v>
+        <v>362</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>197</v>
+        <v>363</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>198</v>
+        <v>364</v>
       </c>
       <c r="M25" s="24"/>
-      <c r="O25" s="16" t="s">
-        <v>199</v>
-      </c>
+      <c r="N25" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="B26" s="5">
-        <v>26</v>
+      <c r="A26" s="13"/>
+      <c r="B26" s="9">
+        <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>200</v>
+        <v>385</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>201</v>
+        <v>386</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>202</v>
+        <v>387</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="I26" s="6"/>
       <c r="J26" s="7" t="s">
-        <v>203</v>
+        <v>389</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>204</v>
+        <v>390</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="M26" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="16" t="s">
-        <v>206</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>1</v>
-      </c>
+      <c r="A27" s="11"/>
       <c r="B27" s="5">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M27" s="24"/>
+      <c r="N27" s="31" t="s">
+        <v>437</v>
+      </c>
       <c r="O27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="5">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>403</v>
+        <v>234</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>218</v>
+        <v>309</v>
       </c>
       <c r="M28" s="24"/>
-      <c r="O28" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="5">
         <v>29</v>
@@ -3145,84 +3247,94 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
       <c r="B30" s="5">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>228</v>
+      <c r="G30" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>230</v>
+        <v>356</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>231</v>
+        <v>357</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="M30" s="24"/>
-      <c r="O30" s="19" t="s">
-        <v>233</v>
-      </c>
+      <c r="N30" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="9">
+        <v>1</v>
+      </c>
       <c r="B31" s="5">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>73</v>
+        <v>348</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>238</v>
+        <v>350</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>239</v>
+        <v>351</v>
       </c>
       <c r="M31" s="24"/>
-      <c r="O31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N31" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>1</v>
       </c>
@@ -3270,122 +3382,134 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="9">
+        <v>1</v>
+      </c>
       <c r="B33" s="5">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E33" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>249</v>
+      <c r="G33" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>251</v>
+        <v>404</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="M33" s="24"/>
-      <c r="O33" s="7"/>
+        <v>304</v>
+      </c>
+      <c r="M33" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="9">
+        <v>1</v>
+      </c>
       <c r="B34" s="5">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>260</v>
+        <v>84</v>
       </c>
       <c r="M34" s="24"/>
-      <c r="O34" s="15" t="s">
-        <v>261</v>
-      </c>
+      <c r="N34" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="O34" s="9"/>
     </row>
     <row r="35" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="5">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>262</v>
+        <v>85</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>267</v>
+        <v>90</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c r="M35" s="24"/>
+      <c r="N35" s="31" t="s">
+        <v>442</v>
+      </c>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -3430,7 +3554,7 @@
         <v>0.67847222222222225</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>1</v>
       </c>
@@ -3482,46 +3606,47 @@
         <v>1</v>
       </c>
       <c r="B38" s="5">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>286</v>
+      <c r="G38" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>404</v>
+        <v>32</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>288</v>
+        <v>33</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M38" s="26" t="s">
-        <v>415</v>
+        <v>35</v>
+      </c>
+      <c r="M38" s="24"/>
+      <c r="N38" s="31" t="s">
+        <v>427</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="5">
         <v>39</v>
@@ -3565,68 +3690,67 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>1</v>
-      </c>
+      <c r="A40" s="11"/>
       <c r="B40" s="5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>301</v>
+      <c r="F40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>287</v>
+        <v>156</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>404</v>
+        <v>157</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="M40" s="30" t="s">
-        <v>426</v>
+        <v>260</v>
+      </c>
+      <c r="M40" s="24"/>
+      <c r="N40" s="31" t="s">
+        <v>443</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>405</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="5">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>305</v>
+        <v>162</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>306</v>
+        <v>163</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>21</v>
@@ -3635,18 +3759,21 @@
         <v>32</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>307</v>
+        <v>164</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="M41" s="24"/>
+      <c r="N41" s="31" t="s">
+        <v>444</v>
+      </c>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="5">
         <v>42</v>
@@ -3690,44 +3817,51 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="9">
+        <v>1</v>
+      </c>
       <c r="B43" s="5">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E43" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>320</v>
+      <c r="F43" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>321</v>
+        <v>196</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>322</v>
+        <v>197</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>323</v>
+        <v>198</v>
       </c>
       <c r="M43" s="24"/>
-      <c r="O43" s="9"/>
-    </row>
-    <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N43" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="O43" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="5">
         <v>44</v>
@@ -3775,93 +3909,100 @@
     <row r="45" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>331</v>
+        <v>192</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M45" s="24"/>
-      <c r="O45" s="9"/>
+      <c r="N45" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="O45" s="19" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="46" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="A46" s="9">
+        <v>1</v>
+      </c>
       <c r="B46" s="5">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E46" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>339</v>
+      <c r="G46" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>340</v>
+        <v>404</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="M46" s="24"/>
-      <c r="O46" s="19" t="s">
-        <v>344</v>
+        <v>290</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>1</v>
-      </c>
+      <c r="A47" s="11"/>
       <c r="B47" s="5">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>345</v>
+        <v>61</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>346</v>
+        <v>62</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>29</v>
@@ -3870,26 +4011,29 @@
         <v>30</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>347</v>
+        <v>63</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>348</v>
+        <v>64</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>349</v>
+        <v>65</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>350</v>
+        <v>66</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>351</v>
+        <v>67</v>
       </c>
       <c r="M47" s="24"/>
-      <c r="O47" s="19" t="s">
-        <v>352</v>
+      <c r="N47" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3897,78 +4041,86 @@
         <v>1</v>
       </c>
       <c r="B48" s="5">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>353</v>
+        <v>207</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>354</v>
+        <v>208</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>355</v>
+        <v>209</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>356</v>
+        <v>211</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>357</v>
+        <v>212</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>358</v>
+        <v>213</v>
       </c>
       <c r="M48" s="24"/>
+      <c r="N48" s="31" t="s">
+        <v>448</v>
+      </c>
       <c r="O48" s="9"/>
     </row>
     <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="5">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>359</v>
+        <v>179</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>361</v>
+        <v>181</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>295</v>
+        <v>126</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>363</v>
+        <v>183</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="M49" s="24"/>
-      <c r="O49" s="9"/>
+      <c r="N49" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="O49" s="23" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
@@ -4006,20 +4158,23 @@
         <v>371</v>
       </c>
       <c r="M50" s="24"/>
+      <c r="N50" s="31" t="s">
+        <v>450</v>
+      </c>
       <c r="O50" s="9"/>
     </row>
     <row r="51" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1</v>
       </c>
-      <c r="B51" s="9">
-        <v>54</v>
+      <c r="B51" s="5">
+        <v>26</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>372</v>
+        <v>200</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>29</v>
@@ -4028,26 +4183,31 @@
         <v>30</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>373</v>
+        <v>202</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>374</v>
+        <v>203</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>375</v>
+        <v>204</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="M51" s="24"/>
+        <v>205</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="N51" s="31" t="s">
+        <v>451</v>
+      </c>
       <c r="O51" s="19" t="s">
-        <v>377</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4055,75 +4215,89 @@
         <v>1</v>
       </c>
       <c r="B52" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>379</v>
+        <v>270</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>381</v>
+        <v>279</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M52" s="24"/>
-      <c r="O52" s="9"/>
+      <c r="N52" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="O52" s="19" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="9">
-        <v>56</v>
+      <c r="A53" s="9">
+        <v>1</v>
+      </c>
+      <c r="B53" s="5">
+        <v>3</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>387</v>
+      <c r="F53" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I53" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="J53" s="7" t="s">
-        <v>389</v>
+        <v>41</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>390</v>
+        <v>42</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="M53" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="M53" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="N53" s="31" t="s">
+        <v>453</v>
+      </c>
       <c r="O53" s="9"/>
     </row>
     <row r="54" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -8818,63 +8992,68 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O53" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O53">
-      <sortCondition ref="B1:B53"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Poster (in-person)"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O53">
+      <sortCondition ref="C1:C53"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" location="heading=h.30j0zll" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K3" r:id="rId2" location="heading=h.gjdgxs" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K38" r:id="rId2" location="heading=h.gjdgxs" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K53" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K47" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K35" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K41" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="K21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K49" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K43" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K51" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K48" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K3" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="K29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K7" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="K32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K40" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K24" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="K36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="K37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K46" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="K39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K33" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K28" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="K42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="K44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K22" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K31" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K30" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="K50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K10" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K26" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="M8" r:id="rId53" xr:uid="{4382B88A-5696-41A8-9093-2528EE5F957D}"/>
     <hyperlink ref="M5" r:id="rId54" xr:uid="{27F70C3B-9F80-4CE6-968E-9984D79A38DC}"/>
     <hyperlink ref="M18" r:id="rId55" xr:uid="{5EAE50FA-9A02-4F98-AFA7-5042534C51C1}"/>
@@ -8883,20 +9062,48 @@
     <hyperlink ref="M32" r:id="rId58" xr:uid="{FFEAF2C7-0134-49A8-9185-8A10E7606A6B}"/>
     <hyperlink ref="M14" r:id="rId59" xr:uid="{9B785D0E-B7F9-4C1D-828E-D43B801A7DC4}"/>
     <hyperlink ref="M6" r:id="rId60" xr:uid="{C838EEFB-54AA-441F-B3B4-16DE6BC38AB0}"/>
-    <hyperlink ref="M38" r:id="rId61" xr:uid="{7812BC30-3818-4EC8-9B0F-E3A05D7FEC5D}"/>
+    <hyperlink ref="M46" r:id="rId61" xr:uid="{7812BC30-3818-4EC8-9B0F-E3A05D7FEC5D}"/>
     <hyperlink ref="M15" r:id="rId62" xr:uid="{3E420181-5A12-4A7B-8F21-D99D9243B323}"/>
     <hyperlink ref="M17" r:id="rId63" xr:uid="{3D0752EA-DA37-4EE5-86F2-2931DF5BD894}"/>
     <hyperlink ref="M2" r:id="rId64" xr:uid="{4453BFF7-9421-446B-BDA6-6A693E8FA9D2}"/>
     <hyperlink ref="M16" r:id="rId65" xr:uid="{4EB99F66-D345-452F-9B21-23B4FB84567F}"/>
     <hyperlink ref="M29" r:id="rId66" xr:uid="{0DC60F48-A222-4CD7-993D-F35CBEDB8D1E}"/>
     <hyperlink ref="M37" r:id="rId67" xr:uid="{BB91109D-DB87-4399-9CB6-6B08E793118C}"/>
-    <hyperlink ref="M26" r:id="rId68" xr:uid="{3157FA67-93E2-4019-858C-ADB80D3FA447}"/>
-    <hyperlink ref="M4" r:id="rId69" xr:uid="{E53BDC66-61F2-43AF-B403-F5268CB778C5}"/>
+    <hyperlink ref="M51" r:id="rId68" xr:uid="{3157FA67-93E2-4019-858C-ADB80D3FA447}"/>
+    <hyperlink ref="M53" r:id="rId69" xr:uid="{E53BDC66-61F2-43AF-B403-F5268CB778C5}"/>
     <hyperlink ref="M36" r:id="rId70" xr:uid="{08AE198B-23E3-433D-A31A-2862D7DE85DC}"/>
     <hyperlink ref="M11" r:id="rId71" xr:uid="{CA39E8BE-DE38-49B2-8D65-AD5F8E5A5C87}"/>
+    <hyperlink ref="N3" r:id="rId72" display="https://drive.google.com/file/d/1KoY0mD88Jm1O3MFg5wp0nrRVhFjktzSZ/view?usp=sharing" xr:uid="{C6CA08DB-9A94-4645-94D3-18B884BD52F6}"/>
+    <hyperlink ref="N4" r:id="rId73" display="https://drive.google.com/file/d/1AyD2-CwguPqC7kq8DhLhCAGUvslWKeSN/view?usp=sharing" xr:uid="{B2DBE665-AD42-4F09-B46B-3EEE396ACA0A}"/>
+    <hyperlink ref="N7" r:id="rId74" xr:uid="{98F58E84-97B0-4425-B546-B9F655625341}"/>
+    <hyperlink ref="N10" r:id="rId75" display="https://drive.google.com/file/d/1N-V40UTVEkdJg8QBjkRLYaXBc1G1Td1P/view?usp=sharing" xr:uid="{3D9806BF-75D2-466E-A475-D0D8BCE763BD}"/>
+    <hyperlink ref="N12" r:id="rId76" display="https://drive.google.com/file/d/1PiAUWWkHfjBIREYTJ2VzMS2mqr--10lW/view?usp=sharing" xr:uid="{B085FC6B-D479-4A37-AF63-53E91E8ABE71}"/>
+    <hyperlink ref="N19" r:id="rId77" xr:uid="{3DE9EF7D-CB6E-4C9F-A278-4D2BDF7D4736}"/>
+    <hyperlink ref="N21" r:id="rId78" display="https://drive.google.com/file/d/13akB6Cd0oUFbbkJ5WqGEN5nzcVGoKPno/view?usp=sharing" xr:uid="{0ECF6887-2A1E-4FEA-A28A-101A3647138A}"/>
+    <hyperlink ref="N23" r:id="rId79" display="https://drive.google.com/file/d/1sMijVIWC34_DHyO3_8AfAicCvhtfPQuj/view?usp=sharing" xr:uid="{AA8DAA83-5F02-4969-8DD9-B6CCF6E603DC}"/>
+    <hyperlink ref="N25" r:id="rId80" xr:uid="{61864F51-19F0-4023-9BDB-CBDD4C52AC2E}"/>
+    <hyperlink ref="N26" r:id="rId81" xr:uid="{5E5EED7B-33F3-4583-BD48-B4B04405C53F}"/>
+    <hyperlink ref="N27" r:id="rId82" xr:uid="{1F673130-CA8F-486E-B10C-686E1783FFEA}"/>
+    <hyperlink ref="N28" r:id="rId83" display="https://drive.google.com/file/d/185fyYMUgGbaZ-womf4Z2jixyO0b_SD31/view?usp=sharing" xr:uid="{9FEB54F0-8733-4618-B5D0-0097C833CF0C}"/>
+    <hyperlink ref="N30" r:id="rId84" display="https://drive.google.com/file/d/1G4m3xehaNu2scnOybWljUe5Q4FJDzxQh/view?usp=sharing" xr:uid="{38833C8F-B249-4428-A88F-0B9959545C9C}"/>
+    <hyperlink ref="N31" r:id="rId85" display="https://drive.google.com/file/d/10D2TGTqZEqtfLi9ES4oIlAoKfo5qQihO/view?usp=sharing" xr:uid="{73DA65EA-7145-4ECE-8146-C4B8FD28B1C4}"/>
+    <hyperlink ref="N34" r:id="rId86" xr:uid="{92A2BB6E-0AF2-4596-898D-D046B59F0067}"/>
+    <hyperlink ref="N35" r:id="rId87" display="https://drive.google.com/file/d/1I5QorFeA6iQsvzA-c7LsIikRhejNNaBT/view?usp=sharing" xr:uid="{68DF3059-2765-4823-8B52-6A891081237E}"/>
+    <hyperlink ref="N38" r:id="rId88" display="https://drive.google.com/file/d/10uGYK5RtdSlDZZ3IiBJgtHsEft_gJ6_a/view?usp=sharing" xr:uid="{CDC4EA0C-F432-49B2-9F30-1A2D762BE2BD}"/>
+    <hyperlink ref="N40" r:id="rId89" xr:uid="{77D7467E-F19C-4268-931B-16ACD4EDF72D}"/>
+    <hyperlink ref="N41" r:id="rId90" display="https://drive.google.com/file/d/1U6QT2yVhdADwYygZOJeb_kZl3OnrMAzf/view?usp=sharing" xr:uid="{7DCDCF94-74A3-4FE7-AC62-6A4224D7F4AC}"/>
+    <hyperlink ref="N43" r:id="rId91" xr:uid="{4EFF408D-E3E6-4D5A-A265-F81370246F7D}"/>
+    <hyperlink ref="N45" r:id="rId92" display="https://drive.google.com/file/d/1QTc9SDzH27_U1-uv7z9aCS5UZLsQa8xU/view?usp=sharing" xr:uid="{42982DC4-88FA-4AEB-9EBF-EA6636A20830}"/>
+    <hyperlink ref="N47" r:id="rId93" display="https://drive.google.com/file/d/1FZ0nIB9gYzTpBGIRXSqVEGR08vuYUlnZ/view?usp=sharing" xr:uid="{20CC1A2B-4EB1-4640-A7BD-229FD7BE5F03}"/>
+    <hyperlink ref="N48" r:id="rId94" display="https://drive.google.com/file/d/1E3_U8vOLLkbPWaqramqmCZ8z6nCHDdcD/view?usp=sharing" xr:uid="{80DBD810-D6AA-4B55-8969-F4C9F897E8E6}"/>
+    <hyperlink ref="N49" r:id="rId95" display="https://docs.google.com/presentation/d/18HWVaMn2eMyXT3NuRrZU6qTPa6gMI4Gh/edit?usp=sharing&amp;ouid=107440759043472227104&amp;rtpof=true&amp;sd=true" xr:uid="{231174B9-1848-448A-85AD-DF09424F33E4}"/>
+    <hyperlink ref="N50" r:id="rId96" display="https://drive.google.com/file/d/1C7pDgA8_X6eVNDyNSd_dh2aXeLFp90DY/view?usp=sharing" xr:uid="{404EFF59-3B98-4F89-BDD1-B5C834AF1D09}"/>
+    <hyperlink ref="N51" r:id="rId97" display="https://drive.google.com/file/d/13x6ojR-_YmMlQcXbcX8fneIq65KGBLpC/view?usp=sharing" xr:uid="{847A11BC-CF9E-4551-85E6-47F9E3525384}"/>
+    <hyperlink ref="N52" r:id="rId98" display="https://drive.google.com/file/d/1t8EJ_qjBrh9v_dftxpftO_u6WqwmaU84/view?usp=sharing" xr:uid="{DF903567-E7BC-4C15-8D72-B4057B390B44}"/>
+    <hyperlink ref="N53" r:id="rId99" display="https://drive.google.com/file/d/1Ms59s-VnrVB-rkvaYDSzwGdZlNL2YvMo/view?usp=sharing" xr:uid="{085477D4-878F-48C4-AC97-FD2651868E04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId72"/>
+  <legacyDrawing r:id="rId100"/>
 </worksheet>
 </file>
 
